--- a/biology/Écologie/Prairies,_savanes_et_terres_arbustives_tropicales_et_subtropicales/Prairies,_savanes_et_terres_arbustives_tropicales_et_subtropicales.xlsx
+++ b/biology/Écologie/Prairies,_savanes_et_terres_arbustives_tropicales_et_subtropicales/Prairies,_savanes_et_terres_arbustives_tropicales_et_subtropicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prairies, savanes et terres arbustives tropicales et subtropicales forment un biome terrestre de la WWF constitué des formations végétales de type herbacé des régions tropicale et subtropicale. Cet habitat se caractérise par des précipitations annuelles de l'ordre de 90 à 150 cm, ce qui est insuffisant pour maintenir un couvert arboré étendu[3]. Ces régions peuvent être parsemées d'arbres (« savanes »), d'arbustes (« brousses ») ou entièrement dominées par les herbes (« prairies »). Bien que présent sur tous les continents, ce biome est surtout représenté en Afrique (écozone afrotropicale) et en Amérique du Sud (écozone néotropicale).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prairies, savanes et terres arbustives tropicales et subtropicales forment un biome terrestre de la WWF constitué des formations végétales de type herbacé des régions tropicale et subtropicale. Cet habitat se caractérise par des précipitations annuelles de l'ordre de 90 à 150 cm, ce qui est insuffisant pour maintenir un couvert arboré étendu. Ces régions peuvent être parsemées d'arbres (« savanes »), d'arbustes (« brousses ») ou entièrement dominées par les herbes (« prairies »). Bien que présent sur tous les continents, ce biome est surtout représenté en Afrique (écozone afrotropicale) et en Amérique du Sud (écozone néotropicale).
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prairies sont dominées par les graminées et d'autres plantes herbacées. Les savanes sont des prairies avec des arbres dispersés. Les terres arbustives sont dominés par des arbustes ligneux ou herbacé.
-Ces grandes étendues de terre dans les tropiques ne reçoivent pas assez de précipitations pour supporter une couverture forestière étendue. En effet, les prairies tropicales et subtropicales, les savanes et les terres arbustives sont caractérisées par des précipitations de 90 à 150 centimètres par année[4]. Les précipitations peuvent être très saisonnières, les précipitations de l’année entière pouvant parfois survenir en seulement quelques semaines.
+Ces grandes étendues de terre dans les tropiques ne reçoivent pas assez de précipitations pour supporter une couverture forestière étendue. En effet, les prairies tropicales et subtropicales, les savanes et les terres arbustives sont caractérisées par des précipitations de 90 à 150 centimètres par année. Les précipitations peuvent être très saisonnières, les précipitations de l’année entière pouvant parfois survenir en seulement quelques semaines.
 Les savanes africaines se trouvent entre les régions forestières ou boisées et les régions herbeuses. La flore comprend les acacias et les baobabs, l’herbe et les arbustes bas. Les acacias perdent leurs feuilles pendant la saison sèche pour conserver l’humidité, tandis que le baobab stocke l’eau dans son tronc pendant la saison sèche. Beaucoup de ces savanes sont en Afrique.
-Les grands mammifères qui ont évolué pour profiter de l’abondance de fourrage caractérisent la biodiversité associée à ces habitats. Ces grands mammifères fauniques sont les plus riches des savanes et des prairies africaines. Les assemblages les plus intacts se trouvent actuellement dans les savanes d’acacia d’Afrique de l’Est et les savanes zambéziennes composées de mosaïques de miombo, de mopane et d’autres habitats[5]. La migration à grande échelle des herbivores des savanes tropicales, comme le gnou (Connochaetes taurinus) et le zèbre (Equus quagga), continue de diminuer par la modification de l’habitat et la chasse. Elles ne se produisent aujourd’hui qu’à un degré significatif en Afrique de l’Est et dans la région centrale du Zambèze. Une grande partie de l’abondance extraordinaire des savanes guinéennes et sahéliennes a été éliminée, bien que les migrations à grande échelle de Kob ougandais se produisent encore dans les savanes de la région du Sudd. Le type de climat du Soudan est caractérisé par une saison alternant chaud et pluvieux, et une saison fraîche et sèche. Dans l’hémisphère Nord, la saison des pluies chaudes commence normalement en mai et dure jusqu’en septembre. Les précipitations varient de 25 cm à 150 cm et sont généralement peu fiables. Le reste de l’année est frais et sec. Les précipitations diminuent lorsqu’on se dirige vers le nord dans l’hémisphère Nord ou vers le sud dans l’hémisphère Sud. La sécheresse est très fréquente.
+Les grands mammifères qui ont évolué pour profiter de l’abondance de fourrage caractérisent la biodiversité associée à ces habitats. Ces grands mammifères fauniques sont les plus riches des savanes et des prairies africaines. Les assemblages les plus intacts se trouvent actuellement dans les savanes d’acacia d’Afrique de l’Est et les savanes zambéziennes composées de mosaïques de miombo, de mopane et d’autres habitats. La migration à grande échelle des herbivores des savanes tropicales, comme le gnou (Connochaetes taurinus) et le zèbre (Equus quagga), continue de diminuer par la modification de l’habitat et la chasse. Elles ne se produisent aujourd’hui qu’à un degré significatif en Afrique de l’Est et dans la région centrale du Zambèze. Une grande partie de l’abondance extraordinaire des savanes guinéennes et sahéliennes a été éliminée, bien que les migrations à grande échelle de Kob ougandais se produisent encore dans les savanes de la région du Sudd. Le type de climat du Soudan est caractérisé par une saison alternant chaud et pluvieux, et une saison fraîche et sèche. Dans l’hémisphère Nord, la saison des pluies chaudes commence normalement en mai et dure jusqu’en septembre. Les précipitations varient de 25 cm à 150 cm et sont généralement peu fiables. Le reste de l’année est frais et sec. Les précipitations diminuent lorsqu’on se dirige vers le nord dans l’hémisphère Nord ou vers le sud dans l’hémisphère Sud. La sécheresse est très fréquente.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prairies tropicales et subtropicales, les savanes et les terres arbustives se trouvent sur tous les continents sauf l'Antarctique. Ils sont très répandus en Afrique, mais sont également présents dans toute l’Asie du Sud et l’Asie du Sud-Est, les parties nord de l’Amérique du Sud et l’Australie du Nord, et le sud des États-Unis.
 </t>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
